--- a/Events_RC.xlsx
+++ b/Events_RC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9703" uniqueCount="8031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11385" uniqueCount="9418">
   <si>
     <t>sample</t>
   </si>
@@ -24104,6 +24104,4167 @@
   </si>
   <si>
     <t>too short</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>mffkey_cidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>mffkey_gidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>SleepStage</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Distance2NextTrigger</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>ReasonForRejection</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>too short</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>mffkey_cidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>mffkey_gidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>SleepStage</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Distance2NextTrigger</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>ReasonForRejection</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>too short</t>
+  </si>
+  <si>
+    <t>OFF Period</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>DIN1</t>
+  </si>
+  <si>
+    <t>DIN2</t>
+  </si>
+  <si>
+    <t>mffkey_cidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>mffkey_gidx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>SleepStage</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>VEHICLE</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Distance2NextTrigger</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>ReasonForRejection</t>
   </si>
   <si>
     <t>OFF Period</t>
@@ -24127,7 +28288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -24154,11 +28315,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -24179,6 +28343,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24188,7 +28355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L121"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -24207,37 +28374,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7613</v>
+        <v>8867</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7614</v>
+        <v>8868</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7615</v>
+        <v>8869</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7705</v>
+        <v>8989</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7796</v>
+        <v>9110</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7842</v>
+        <v>9171</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>7933</v>
+        <v>9292</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7934</v>
+        <v>9293</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8025</v>
+        <v>9414</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8026</v>
+        <v>9415</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>8027</v>
+        <v>9416</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>5937</v>
@@ -24245,28 +28412,28 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1276570.9977596998</v>
+        <v>1239380.0005316734</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7616</v>
+        <v>8870</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7706</v>
+        <v>8990</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7797</v>
+        <v>9111</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7843</v>
+        <v>9172</v>
       </c>
       <c r="G2" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>7935</v>
+        <v>9294</v>
       </c>
       <c r="I2" s="0">
         <v>15</v>
@@ -24279,37 +28446,37 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1291581.9905698299</v>
+        <v>1254401.9971042871</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7617</v>
+        <v>8871</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7707</v>
+        <v>8991</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7797</v>
+        <v>9111</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>7844</v>
+        <v>9173</v>
       </c>
       <c r="G3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>7936</v>
+        <v>9295</v>
       </c>
       <c r="I3" s="0">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="J3" s="0">
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>5938</v>
@@ -24317,28 +28484,28 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1379592.9998159409</v>
+        <v>1269417.0031696558</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7618</v>
+        <v>8872</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7708</v>
+        <v>8992</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7798</v>
+        <v>9112</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>7845</v>
+        <v>9174</v>
       </c>
       <c r="G4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>7937</v>
+        <v>9296</v>
       </c>
       <c r="I4" s="0">
         <v>15</v>
@@ -24351,28 +28518,28 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1394604.9984544516</v>
+        <v>1284431.9991767406</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7619</v>
+        <v>8873</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7709</v>
+        <v>8993</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7798</v>
+        <v>9112</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>7846</v>
+        <v>9175</v>
       </c>
       <c r="G5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>7938</v>
+        <v>9297</v>
       </c>
       <c r="I5" s="0">
         <v>15</v>
@@ -24381,7 +28548,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>5938</v>
@@ -24389,28 +28556,26 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1409618.9986914396</v>
+        <v>1299446.9951838255</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7620</v>
-      </c>
+      <c r="C6" s="0"/>
       <c r="D6" s="0" t="s">
-        <v>7710</v>
+        <v>8994</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7799</v>
+        <v>9113</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>7847</v>
+        <v>9176</v>
       </c>
       <c r="G6" s="0">
         <v>3</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>7939</v>
+        <v>9298</v>
       </c>
       <c r="I6" s="0">
         <v>15</v>
@@ -24423,28 +28588,28 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1424635.0005269051</v>
+        <v>1314465.9943878651</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7621</v>
+        <v>8874</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7711</v>
+        <v>8995</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7799</v>
+        <v>9113</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>7848</v>
+        <v>9177</v>
       </c>
       <c r="G7" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>7940</v>
+        <v>9299</v>
       </c>
       <c r="I7" s="0">
         <v>15</v>
@@ -24453,7 +28618,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>5938</v>
@@ -24461,26 +28626,28 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1439648.9907056093</v>
+        <v>1329476.997256279</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8" s="0" t="s">
+        <v>8875</v>
+      </c>
       <c r="D8" s="0" t="s">
-        <v>7712</v>
+        <v>8996</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7800</v>
+        <v>9114</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>7849</v>
+        <v>9178</v>
       </c>
       <c r="G8" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>7941</v>
+        <v>9300</v>
       </c>
       <c r="I8" s="0">
         <v>15</v>
@@ -24493,28 +28660,28 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1454664.9925410748</v>
+        <v>1344493.9948618412</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7622</v>
+        <v>8876</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7713</v>
+        <v>8997</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7800</v>
+        <v>9114</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>7850</v>
+        <v>9179</v>
       </c>
       <c r="G9" s="0">
         <v>3</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>7942</v>
+        <v>9301</v>
       </c>
       <c r="I9" s="0">
         <v>15</v>
@@ -24523,7 +28690,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>5938</v>
@@ -24531,28 +28698,28 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1469678.9927780628</v>
+        <v>1359506.9993287325</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7623</v>
+        <v>8877</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7714</v>
+        <v>8998</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7801</v>
+        <v>9115</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>7851</v>
+        <v>9180</v>
       </c>
       <c r="G10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>7943</v>
+        <v>9302</v>
       </c>
       <c r="I10" s="0">
         <v>15</v>
@@ -24565,28 +28732,28 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1484694.9946135283</v>
+        <v>1374523.9969342947</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7624</v>
+        <v>8878</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7715</v>
+        <v>8999</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7801</v>
+        <v>9115</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>7852</v>
+        <v>9181</v>
       </c>
       <c r="G11" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>7944</v>
+        <v>9303</v>
       </c>
       <c r="I11" s="0">
         <v>15</v>
@@ -24595,7 +28762,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>5938</v>
@@ -24603,28 +28770,28 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1499708.9948505163</v>
+        <v>1389537.001401186</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7625</v>
+        <v>8879</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7716</v>
+        <v>9000</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7802</v>
+        <v>9116</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>7853</v>
+        <v>9182</v>
       </c>
       <c r="G12" s="0">
         <v>3</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>7945</v>
+        <v>9304</v>
       </c>
       <c r="I12" s="0">
         <v>15</v>
@@ -24637,28 +28804,28 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1514724.9966859818</v>
+        <v>1404553.9990067482</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7626</v>
+        <v>8880</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7717</v>
+        <v>9001</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7802</v>
+        <v>9116</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>7854</v>
+        <v>9183</v>
       </c>
       <c r="G13" s="0">
         <v>3</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>7946</v>
+        <v>9305</v>
       </c>
       <c r="I13" s="0">
         <v>15</v>
@@ -24667,7 +28834,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>5938</v>
@@ -24675,28 +28842,28 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1529738.9969229698</v>
+        <v>1419566.9934153557</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7627</v>
+        <v>8881</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7718</v>
+        <v>9002</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7803</v>
+        <v>9117</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>7855</v>
+        <v>9184</v>
       </c>
       <c r="G14" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>7947</v>
+        <v>9306</v>
       </c>
       <c r="I14" s="0">
         <v>15</v>
@@ -24709,28 +28876,28 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1544754.9987584352</v>
+        <v>1434586.9984477758</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7628</v>
+        <v>8882</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7719</v>
+        <v>9003</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7803</v>
+        <v>9117</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>7856</v>
+        <v>9185</v>
       </c>
       <c r="G15" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>7948</v>
+        <v>9307</v>
       </c>
       <c r="I15" s="0">
         <v>15</v>
@@ -24739,7 +28906,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>5938</v>
@@ -24747,28 +28914,28 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>1559769.9947655201</v>
+        <v>1449596.9954878092</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7629</v>
+        <v>8883</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7720</v>
+        <v>9004</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7804</v>
+        <v>9118</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>7857</v>
+        <v>9186</v>
       </c>
       <c r="G16" s="0">
         <v>3</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>7949</v>
+        <v>9308</v>
       </c>
       <c r="I16" s="0">
         <v>15</v>
@@ -24781,28 +28948,28 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1574785.9966009855</v>
+        <v>1464613.9930933714</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7630</v>
+        <v>8884</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7721</v>
+        <v>9005</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7804</v>
+        <v>9118</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>7858</v>
+        <v>9187</v>
       </c>
       <c r="G17" s="0">
         <v>3</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>7950</v>
+        <v>9309</v>
       </c>
       <c r="I17" s="0">
         <v>15</v>
@@ -24811,7 +28978,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>5938</v>
@@ -24819,28 +28986,28 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1589799.9968379736</v>
+        <v>1479627.9933303595</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7631</v>
+        <v>8885</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7722</v>
+        <v>9006</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>7805</v>
+        <v>9119</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>7859</v>
+        <v>9188</v>
       </c>
       <c r="G18" s="0">
         <v>3</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>7951</v>
+        <v>9310</v>
       </c>
       <c r="I18" s="0">
         <v>15</v>
@@ -24853,28 +29020,28 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1604815.998673439</v>
+        <v>1494643.9951658249</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7632</v>
+        <v>8886</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7723</v>
+        <v>9007</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7805</v>
+        <v>9119</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>7860</v>
+        <v>9189</v>
       </c>
       <c r="G19" s="0">
         <v>3</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>7952</v>
+        <v>9311</v>
       </c>
       <c r="I19" s="0">
         <v>15</v>
@@ -24883,7 +29050,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>5938</v>
@@ -24891,28 +29058,28 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1619829.9989104271</v>
+        <v>1509657.995402813</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7633</v>
+        <v>8887</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>7724</v>
+        <v>9008</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7806</v>
+        <v>9120</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>7861</v>
+        <v>9190</v>
       </c>
       <c r="G20" s="0">
         <v>3</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>7953</v>
+        <v>9312</v>
       </c>
       <c r="I20" s="0">
         <v>15</v>
@@ -24925,28 +29092,28 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1634845.9906876087</v>
+        <v>1524673.9972382784</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7634</v>
+        <v>8888</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7725</v>
+        <v>9009</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7806</v>
+        <v>9120</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>7862</v>
+        <v>9191</v>
       </c>
       <c r="G21" s="0">
         <v>3</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>7954</v>
+        <v>9313</v>
       </c>
       <c r="I21" s="0">
         <v>15</v>
@@ -24955,7 +29122,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>5938</v>
@@ -24963,28 +29130,28 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>1649859.9909245968</v>
+        <v>1539687.9974752665</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7635</v>
+        <v>8889</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>7726</v>
+        <v>9010</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>7807</v>
+        <v>9121</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>7863</v>
+        <v>9192</v>
       </c>
       <c r="G22" s="0">
         <v>3</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>7955</v>
+        <v>9314</v>
       </c>
       <c r="I22" s="0">
         <v>15</v>
@@ -24997,28 +29164,28 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1664875.9927600622</v>
+        <v>1554706.996679306</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7636</v>
+        <v>8890</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>7727</v>
+        <v>9011</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7807</v>
+        <v>9121</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>7864</v>
+        <v>9193</v>
       </c>
       <c r="G23" s="0">
         <v>3</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>7956</v>
+        <v>9315</v>
       </c>
       <c r="I23" s="0">
         <v>15</v>
@@ -25027,7 +29194,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>5938</v>
@@ -25035,28 +29202,28 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>1679889.9929970503</v>
+        <v>1569718.9953178167</v>
       </c>
       <c r="B24" s="0">
         <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7637</v>
+        <v>8891</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>7728</v>
+        <v>9012</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>7808</v>
+        <v>9122</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>7865</v>
+        <v>9194</v>
       </c>
       <c r="G24" s="0">
         <v>3</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>7957</v>
+        <v>9316</v>
       </c>
       <c r="I24" s="0">
         <v>15</v>
@@ -25069,28 +29236,28 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1694905.9948325157</v>
+        <v>1584734.0013831854</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7638</v>
+        <v>8892</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>7729</v>
+        <v>9013</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>7808</v>
+        <v>9122</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>7866</v>
+        <v>9195</v>
       </c>
       <c r="G25" s="0">
         <v>3</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>7958</v>
+        <v>9317</v>
       </c>
       <c r="I25" s="0">
         <v>15</v>
@@ -25099,7 +29266,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>5938</v>
@@ -25107,28 +29274,28 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1709920.9908396006</v>
+        <v>1599748.9973902702</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>7639</v>
+        <v>8893</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>7730</v>
+        <v>9014</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>7809</v>
+        <v>9123</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>7867</v>
+        <v>9196</v>
       </c>
       <c r="G26" s="0">
         <v>3</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>7959</v>
+        <v>9318</v>
       </c>
       <c r="I26" s="0">
         <v>15</v>
@@ -25141,28 +29308,28 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1724936.992675066</v>
+        <v>1614764.9992257357</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>7640</v>
+        <v>8894</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>7731</v>
+        <v>9015</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>7809</v>
+        <v>9123</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>7868</v>
+        <v>9197</v>
       </c>
       <c r="G27" s="0">
         <v>3</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>7960</v>
+        <v>9319</v>
       </c>
       <c r="I27" s="0">
         <v>15</v>
@@ -25171,7 +29338,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>5938</v>
@@ -25179,28 +29346,28 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>1739950.9929120541</v>
+        <v>1629778.9994627237</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>7641</v>
+        <v>8895</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>7732</v>
+        <v>9016</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>7810</v>
+        <v>9124</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>7869</v>
+        <v>9198</v>
       </c>
       <c r="G28" s="0">
         <v>3</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>7961</v>
+        <v>9320</v>
       </c>
       <c r="I28" s="0">
         <v>15</v>
@@ -25213,28 +29380,28 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1754966.9947475195</v>
+        <v>1644795.0012981892</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>7642</v>
+        <v>8896</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>7733</v>
+        <v>9017</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>7810</v>
+        <v>9124</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>7870</v>
+        <v>9199</v>
       </c>
       <c r="G29" s="0">
         <v>3</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>7962</v>
+        <v>9321</v>
       </c>
       <c r="I29" s="0">
         <v>15</v>
@@ -25243,7 +29410,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>5938</v>
@@ -25251,28 +29418,28 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1769980.9949845076</v>
+        <v>1659809.0015351772</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>7643</v>
+        <v>8897</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>7734</v>
+        <v>9018</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>7811</v>
+        <v>9125</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>7871</v>
+        <v>9200</v>
       </c>
       <c r="G30" s="0">
         <v>3</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>7963</v>
+        <v>9322</v>
       </c>
       <c r="I30" s="0">
         <v>15</v>
@@ -25285,28 +29452,28 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1784996.996819973</v>
+        <v>1674828.9965093136</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>7644</v>
+        <v>8898</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>7735</v>
+        <v>9019</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>7811</v>
+        <v>9125</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>7872</v>
+        <v>9201</v>
       </c>
       <c r="G31" s="0">
         <v>3</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>7964</v>
+        <v>9323</v>
       </c>
       <c r="I31" s="0">
         <v>15</v>
@@ -25315,7 +29482,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>5938</v>
@@ -25323,28 +29490,28 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1800010.9970569611</v>
+        <v>1689838.9935493469</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>7645</v>
+        <v>8899</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>7736</v>
+        <v>9020</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>7812</v>
+        <v>9126</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>7873</v>
+        <v>9202</v>
       </c>
       <c r="G32" s="0">
         <v>3</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>7965</v>
+        <v>9324</v>
       </c>
       <c r="I32" s="0">
         <v>15</v>
@@ -25357,28 +29524,28 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1815026.9988924265</v>
+        <v>1704854.9953848124</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>7646</v>
+        <v>8900</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7737</v>
+        <v>9021</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>7812</v>
+        <v>9126</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>7874</v>
+        <v>9203</v>
       </c>
       <c r="G33" s="0">
         <v>3</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>7966</v>
+        <v>9325</v>
       </c>
       <c r="I33" s="0">
         <v>15</v>
@@ -25387,7 +29554,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>5938</v>
@@ -25395,28 +29562,28 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1830040.9991294146</v>
+        <v>1719868.9956218004</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>7647</v>
+        <v>8901</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7738</v>
+        <v>9022</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>7813</v>
+        <v>9127</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>7875</v>
+        <v>9204</v>
       </c>
       <c r="G34" s="0">
         <v>3</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>7967</v>
+        <v>9326</v>
       </c>
       <c r="I34" s="0">
         <v>15</v>
@@ -25429,28 +29596,28 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1845057.9967349768</v>
+        <v>1734885.9932273626</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>7648</v>
+        <v>8902</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>7739</v>
+        <v>9023</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>7813</v>
+        <v>9127</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>7876</v>
+        <v>9205</v>
       </c>
       <c r="G35" s="0">
         <v>3</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>7968</v>
+        <v>9327</v>
       </c>
       <c r="I35" s="0">
         <v>15</v>
@@ -25459,7 +29626,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>5938</v>
@@ -25467,28 +29634,28 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1860070.9911435843</v>
+        <v>1749899.9934643507</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>7649</v>
+        <v>8903</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>7740</v>
+        <v>9024</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>7814</v>
+        <v>9128</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>7877</v>
+        <v>9206</v>
       </c>
       <c r="G36" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>7969</v>
+        <v>9328</v>
       </c>
       <c r="I36" s="0">
         <v>15</v>
@@ -25501,28 +29668,28 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1875087.9988074303</v>
+        <v>1764915.9952998161</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7650</v>
+        <v>8904</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>7741</v>
+        <v>9025</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>7814</v>
+        <v>9128</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>7878</v>
+        <v>9207</v>
       </c>
       <c r="G37" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>7970</v>
+        <v>9329</v>
       </c>
       <c r="I37" s="0">
         <v>15</v>
@@ -25531,7 +29698,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>5938</v>
@@ -25539,28 +29706,28 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1890101.9990444183</v>
+        <v>1779929.9955368042</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>7651</v>
+        <v>8905</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>7742</v>
+        <v>9026</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>7815</v>
+        <v>9129</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>7879</v>
+        <v>9208</v>
       </c>
       <c r="G38" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>7971</v>
+        <v>9330</v>
       </c>
       <c r="I38" s="0">
         <v>15</v>
@@ -25573,28 +29740,28 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1905117.9908216</v>
+        <v>1794948.9947408438</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7652</v>
+        <v>8906</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>7743</v>
+        <v>9027</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>7815</v>
+        <v>9129</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>7880</v>
+        <v>9209</v>
       </c>
       <c r="G39" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>7972</v>
+        <v>9331</v>
       </c>
       <c r="I39" s="0">
         <v>15</v>
@@ -25603,7 +29770,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>5938</v>
@@ -25611,28 +29778,28 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1920131.991058588</v>
+        <v>1809959.9976092577</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>7653</v>
+        <v>8907</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>7744</v>
+        <v>9028</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>7816</v>
+        <v>9130</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>7881</v>
+        <v>9210</v>
       </c>
       <c r="G40" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>7973</v>
+        <v>9332</v>
       </c>
       <c r="I40" s="0">
         <v>15</v>
@@ -25645,28 +29812,28 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1935147.9928940535</v>
+        <v>1824975.9994447231</v>
       </c>
       <c r="B41" s="0">
         <v>0</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>7654</v>
+        <v>8908</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>7745</v>
+        <v>9029</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>7816</v>
+        <v>9130</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>7882</v>
+        <v>9211</v>
       </c>
       <c r="G41" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>7974</v>
+        <v>9333</v>
       </c>
       <c r="I41" s="0">
         <v>15</v>
@@ -25675,7 +29842,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>5938</v>
@@ -25683,28 +29850,28 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1950161.9931310415</v>
+        <v>1839989.9996817112</v>
       </c>
       <c r="B42" s="0">
         <v>0</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7655</v>
+        <v>8909</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>7746</v>
+        <v>9030</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>7817</v>
+        <v>9131</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>7883</v>
+        <v>9212</v>
       </c>
       <c r="G42" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>7975</v>
+        <v>9334</v>
       </c>
       <c r="I42" s="0">
         <v>15</v>
@@ -25717,28 +29884,28 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1965177.994966507</v>
+        <v>1855006.0015171766</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>7656</v>
+        <v>8910</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>7747</v>
+        <v>9031</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>7817</v>
+        <v>9131</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>7884</v>
+        <v>9213</v>
       </c>
       <c r="G43" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>7976</v>
+        <v>9335</v>
       </c>
       <c r="I43" s="0">
         <v>15</v>
@@ -25747,7 +29914,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>5938</v>
@@ -25755,28 +29922,28 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1980192.9909735918</v>
+        <v>1870020.0017541647</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>7657</v>
+        <v>8911</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>7748</v>
+        <v>9032</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>7818</v>
+        <v>9132</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>7885</v>
+        <v>9214</v>
       </c>
       <c r="G44" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>7977</v>
+        <v>9336</v>
       </c>
       <c r="I44" s="0">
         <v>15</v>
@@ -25789,28 +29956,28 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1995207.9970389605</v>
+        <v>1885036.9993597269</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>7658</v>
+        <v>8912</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>7749</v>
+        <v>9033</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>7818</v>
+        <v>9132</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>7886</v>
+        <v>9215</v>
       </c>
       <c r="G45" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>7978</v>
+        <v>9337</v>
       </c>
       <c r="I45" s="0">
         <v>15</v>
@@ -25819,7 +29986,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>5938</v>
@@ -25827,28 +29994,28 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>2010222.9930460453</v>
+        <v>1900049.9937683344</v>
       </c>
       <c r="B46" s="0">
         <v>0</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>7659</v>
+        <v>8913</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>7750</v>
+        <v>9034</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>7819</v>
+        <v>9133</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>7887</v>
+        <v>9216</v>
       </c>
       <c r="G46" s="0">
         <v>3</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>7979</v>
+        <v>9338</v>
       </c>
       <c r="I46" s="0">
         <v>15</v>
@@ -25861,28 +30028,28 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>2025237.999111414</v>
+        <v>1915069.9988007545</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>7660</v>
+        <v>8914</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>7751</v>
+        <v>9035</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>7819</v>
+        <v>9133</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>7888</v>
+        <v>9217</v>
       </c>
       <c r="G47" s="0">
         <v>3</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>7980</v>
+        <v>9339</v>
       </c>
       <c r="I47" s="0">
         <v>15</v>
@@ -25891,7 +30058,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>5938</v>
@@ -25899,28 +30066,28 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>2040252.9951184988</v>
+        <v>1930079.9958407879</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>7661</v>
+        <v>8915</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>7752</v>
+        <v>9036</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>7820</v>
+        <v>9134</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>7889</v>
+        <v>9218</v>
       </c>
       <c r="G48" s="0">
         <v>3</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>7981</v>
+        <v>9340</v>
       </c>
       <c r="I48" s="0">
         <v>15</v>
@@ -25933,37 +30100,37 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>2055268.9969539642</v>
+        <v>1945096.9934463501</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>7662</v>
+        <v>8916</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>7753</v>
+        <v>9037</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>7820</v>
+        <v>9134</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>7890</v>
+        <v>9219</v>
       </c>
       <c r="G49" s="0">
         <v>3</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>7982</v>
+        <v>9341</v>
       </c>
       <c r="I49" s="0">
-        <v>715</v>
+        <v>15</v>
       </c>
       <c r="J49" s="0">
         <v>1</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>5938</v>
@@ -25971,28 +30138,28 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>2770249.9911189079</v>
+        <v>1960110.9936833382</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>7663</v>
+        <v>8917</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7754</v>
+        <v>9038</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>7821</v>
+        <v>9135</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>7891</v>
+        <v>9220</v>
       </c>
       <c r="G50" s="0">
         <v>3</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>7983</v>
+        <v>9342</v>
       </c>
       <c r="I50" s="0">
         <v>15</v>
@@ -26005,28 +30172,28 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>2785258.9923888445</v>
+        <v>1975126.9955188036</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>7664</v>
+        <v>8918</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>7755</v>
+        <v>9039</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>7821</v>
+        <v>9135</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>7892</v>
+        <v>9221</v>
       </c>
       <c r="G51" s="0">
         <v>3</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>7984</v>
+        <v>9343</v>
       </c>
       <c r="I51" s="0">
         <v>15</v>
@@ -26035,7 +30202,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L51" s="0" t="s">
         <v>5938</v>
@@ -26043,28 +30210,28 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>2800273.9984542131</v>
+        <v>1990140.9957557917</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>7665</v>
+        <v>8919</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>7756</v>
+        <v>9040</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>7822</v>
+        <v>9136</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>7893</v>
+        <v>9222</v>
       </c>
       <c r="G52" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>7985</v>
+        <v>9344</v>
       </c>
       <c r="I52" s="0">
         <v>15</v>
@@ -26077,28 +30244,28 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>2815288.994461298</v>
+        <v>2005156.9975912571</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>7666</v>
+        <v>8920</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>7757</v>
+        <v>9041</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>7822</v>
+        <v>9136</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>7894</v>
+        <v>9223</v>
       </c>
       <c r="G53" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>7986</v>
+        <v>9345</v>
       </c>
       <c r="I53" s="0">
         <v>15</v>
@@ -26107,7 +30274,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>5938</v>
@@ -26115,28 +30282,28 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>2830304.0005266666</v>
+        <v>2020171.9935983419</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>7667</v>
+        <v>8921</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>7758</v>
+        <v>9042</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>7823</v>
+        <v>9137</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>7895</v>
+        <v>9224</v>
       </c>
       <c r="G54" s="0">
         <v>3</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>7987</v>
+        <v>9346</v>
       </c>
       <c r="I54" s="0">
         <v>15</v>
@@ -26149,28 +30316,28 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>2845318.9965337515</v>
+        <v>2035189.9970322847</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>7668</v>
+        <v>8922</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>7759</v>
+        <v>9043</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>7823</v>
+        <v>9137</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>7896</v>
+        <v>9225</v>
       </c>
       <c r="G55" s="0">
         <v>3</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>7988</v>
+        <v>9347</v>
       </c>
       <c r="I55" s="0">
         <v>15</v>
@@ -26179,7 +30346,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L55" s="0" t="s">
         <v>5938</v>
@@ -26187,28 +30354,28 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>2860333.9925408363</v>
+        <v>2050201.9956707954</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>7669</v>
+        <v>8923</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>7760</v>
+        <v>9044</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>7824</v>
+        <v>9138</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>7897</v>
+        <v>9226</v>
       </c>
       <c r="G56" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>7989</v>
+        <v>9348</v>
       </c>
       <c r="I56" s="0">
         <v>15</v>
@@ -26221,28 +30388,28 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>2875348.998606205</v>
+        <v>2065217.0017361641</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>7670</v>
+        <v>8924</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>7761</v>
+        <v>9045</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>7824</v>
+        <v>9138</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>7898</v>
+        <v>9227</v>
       </c>
       <c r="G57" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>7990</v>
+        <v>9349</v>
       </c>
       <c r="I57" s="0">
         <v>15</v>
@@ -26251,7 +30418,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L57" s="0" t="s">
         <v>5938</v>
@@ -26259,28 +30426,28 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>2890363.9946132898</v>
+        <v>2080231.9977432489</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>7671</v>
+        <v>8925</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>7762</v>
+        <v>9046</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>7825</v>
+        <v>9139</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>7899</v>
+        <v>9228</v>
       </c>
       <c r="G58" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>7991</v>
+        <v>9350</v>
       </c>
       <c r="I58" s="0">
         <v>15</v>
@@ -26293,28 +30460,28 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>2905380.992218852</v>
+        <v>2095246.9937503338</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>7672</v>
+        <v>8926</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>7763</v>
+        <v>9047</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>7825</v>
+        <v>9139</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>7900</v>
+        <v>9229</v>
       </c>
       <c r="G59" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>7992</v>
+        <v>9351</v>
       </c>
       <c r="I59" s="0">
         <v>15</v>
@@ -26323,7 +30490,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L59" s="0" t="s">
         <v>5938</v>
@@ -26331,28 +30498,28 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>2920393.9966857433</v>
+        <v>2110261.9998157024</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7673</v>
+        <v>8927</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>7764</v>
+        <v>9048</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>7826</v>
+        <v>9140</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>7901</v>
+        <v>9230</v>
       </c>
       <c r="G60" s="0">
         <v>3</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>7993</v>
+        <v>9352</v>
       </c>
       <c r="I60" s="0">
         <v>15</v>
@@ -26365,28 +30532,28 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>2935410.9942913055</v>
+        <v>2125276.9958227873</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>7674</v>
+        <v>8928</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>7765</v>
+        <v>9049</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>7826</v>
+        <v>9140</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>7902</v>
+        <v>9231</v>
       </c>
       <c r="G61" s="0">
         <v>3</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>7994</v>
+        <v>9353</v>
       </c>
       <c r="I61" s="0">
         <v>15</v>
@@ -26395,7 +30562,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>5938</v>
@@ -26403,28 +30570,28 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>2950423.9987581968</v>
+        <v>2140292.0018881559</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>7675</v>
+        <v>8929</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>7766</v>
+        <v>9050</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>7827</v>
+        <v>9141</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>7903</v>
+        <v>9232</v>
       </c>
       <c r="G62" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>7995</v>
+        <v>9354</v>
       </c>
       <c r="I62" s="0">
         <v>15</v>
@@ -26437,37 +30604,37 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>2965440.996363759</v>
+        <v>2155311.9968622923</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>7676</v>
+        <v>8930</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>7767</v>
+        <v>9051</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>7827</v>
+        <v>9141</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>7904</v>
+        <v>9233</v>
       </c>
       <c r="G63" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>7996</v>
+        <v>9355</v>
       </c>
       <c r="I63" s="0">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J63" s="0">
         <v>1</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>5938</v>
@@ -26475,28 +30642,28 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>2992012.9906386137</v>
+        <v>2170321.9939023256</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>7677</v>
+        <v>8931</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>7768</v>
+        <v>9052</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>7828</v>
+        <v>9142</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>7905</v>
+        <v>9234</v>
       </c>
       <c r="G64" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>7997</v>
+        <v>9356</v>
       </c>
       <c r="I64" s="0">
         <v>15</v>
@@ -26509,28 +30676,28 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>3007035.993039608</v>
+        <v>2185339.0015661716</v>
       </c>
       <c r="B65" s="0">
         <v>0</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>7678</v>
+        <v>8932</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>7769</v>
+        <v>9053</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>7828</v>
+        <v>9142</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>7906</v>
+        <v>9235</v>
       </c>
       <c r="G65" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>7998</v>
+        <v>9357</v>
       </c>
       <c r="I65" s="0">
         <v>15</v>
@@ -26539,7 +30706,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>5938</v>
@@ -26547,28 +30714,28 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>3022050.9991049767</v>
+        <v>2200351.9959747791</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>7679</v>
+        <v>8933</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>7770</v>
+        <v>9054</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>7829</v>
+        <v>9143</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>7907</v>
+        <v>9236</v>
       </c>
       <c r="G66" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>7999</v>
+        <v>9358</v>
       </c>
       <c r="I66" s="0">
         <v>15</v>
@@ -26581,28 +30748,28 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>3037065.9951120615</v>
+        <v>2215368.9935803413</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>7680</v>
+        <v>8934</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>7771</v>
+        <v>9055</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>7829</v>
+        <v>9143</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>7908</v>
+        <v>9237</v>
       </c>
       <c r="G67" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>8000</v>
+        <v>9359</v>
       </c>
       <c r="I67" s="0">
         <v>15</v>
@@ -26611,7 +30778,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>5938</v>
@@ -26619,28 +30786,28 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>3052080.9911191463</v>
+        <v>2230381.9980472326</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>7681</v>
+        <v>8935</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>7772</v>
+        <v>9056</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>7830</v>
+        <v>9144</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>7909</v>
+        <v>9238</v>
       </c>
       <c r="G68" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>8001</v>
+        <v>9360</v>
       </c>
       <c r="I68" s="0">
         <v>15</v>
@@ -26653,28 +30820,28 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>3067095.997184515</v>
+        <v>2245398.9956527948</v>
       </c>
       <c r="B69" s="0">
         <v>0</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7682</v>
+        <v>8936</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>7773</v>
+        <v>9057</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>7830</v>
+        <v>9144</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>7910</v>
+        <v>9239</v>
       </c>
       <c r="G69" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>8002</v>
+        <v>9361</v>
       </c>
       <c r="I69" s="0">
         <v>15</v>
@@ -26683,7 +30850,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>5938</v>
@@ -26691,28 +30858,28 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>3082110.9931915998</v>
+        <v>2260412.0001196861</v>
       </c>
       <c r="B70" s="0">
         <v>0</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>7683</v>
+        <v>8937</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>7774</v>
+        <v>9058</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>7831</v>
+        <v>9145</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>7911</v>
+        <v>9240</v>
       </c>
       <c r="G70" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>8003</v>
+        <v>9362</v>
       </c>
       <c r="I70" s="0">
         <v>15</v>
@@ -26725,28 +30892,28 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>3097126.9950270653</v>
+        <v>2275428.9977252483</v>
       </c>
       <c r="B71" s="0">
         <v>0</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>7684</v>
+        <v>8938</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>7775</v>
+        <v>9059</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>7831</v>
+        <v>9145</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>7912</v>
+        <v>9241</v>
       </c>
       <c r="G71" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>8004</v>
+        <v>9363</v>
       </c>
       <c r="I71" s="0">
         <v>15</v>
@@ -26755,7 +30922,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>5938</v>
@@ -26763,28 +30930,28 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>3112140.9952640533</v>
+        <v>2290442.9979622364</v>
       </c>
       <c r="B72" s="0">
         <v>0</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>7685</v>
+        <v>8939</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>7776</v>
+        <v>9060</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>7832</v>
+        <v>9146</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>7913</v>
+        <v>9242</v>
       </c>
       <c r="G72" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>8005</v>
+        <v>9364</v>
       </c>
       <c r="I72" s="0">
         <v>15</v>
@@ -26797,28 +30964,28 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>3127156.9970995188</v>
+        <v>2305463.0029946566</v>
       </c>
       <c r="B73" s="0">
         <v>0</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>7686</v>
+        <v>8940</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>7777</v>
+        <v>9061</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>7832</v>
+        <v>9146</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>7914</v>
+        <v>9243</v>
       </c>
       <c r="G73" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>8006</v>
+        <v>9365</v>
       </c>
       <c r="I73" s="0">
         <v>15</v>
@@ -26827,7 +30994,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>5938</v>
@@ -26835,28 +31002,28 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>3142170.9973365068</v>
+        <v>2320473.0000346899</v>
       </c>
       <c r="B74" s="0">
         <v>0</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>7687</v>
+        <v>8941</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>7778</v>
+        <v>9062</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>7833</v>
+        <v>9147</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>7915</v>
+        <v>9244</v>
       </c>
       <c r="G74" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>8007</v>
+        <v>9366</v>
       </c>
       <c r="I74" s="0">
         <v>15</v>
@@ -26869,28 +31036,28 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>3157186.9991719723</v>
+        <v>2335489.0018701553</v>
       </c>
       <c r="B75" s="0">
         <v>0</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>7688</v>
+        <v>8942</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>7779</v>
+        <v>9063</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>7833</v>
+        <v>9147</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>7916</v>
+        <v>9245</v>
       </c>
       <c r="G75" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>8008</v>
+        <v>9367</v>
       </c>
       <c r="I75" s="0">
         <v>15</v>
@@ -26899,7 +31066,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L75" s="0" t="s">
         <v>5938</v>
@@ -26907,28 +31074,28 @@
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>3172200.9994089603</v>
+        <v>2350503.9978772402</v>
       </c>
       <c r="B76" s="0">
         <v>0</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>7689</v>
+        <v>8943</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>7780</v>
+        <v>9064</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>7834</v>
+        <v>9148</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>7917</v>
+        <v>9246</v>
       </c>
       <c r="G76" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>8009</v>
+        <v>9368</v>
       </c>
       <c r="I76" s="0">
         <v>15</v>
@@ -26941,28 +31108,28 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>3187217.9970145226</v>
+        <v>2365518.993884325</v>
       </c>
       <c r="B77" s="0">
         <v>0</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>7690</v>
+        <v>8944</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>7781</v>
+        <v>9065</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>7834</v>
+        <v>9148</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>7918</v>
+        <v>9247</v>
       </c>
       <c r="G77" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>8010</v>
+        <v>9369</v>
       </c>
       <c r="I77" s="0">
         <v>15</v>
@@ -26971,7 +31138,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L77" s="0" t="s">
         <v>5938</v>
@@ -26979,28 +31146,28 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>3202230.99142313</v>
+        <v>2380533.9999496937</v>
       </c>
       <c r="B78" s="0">
         <v>0</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>7691</v>
+        <v>8945</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>7782</v>
+        <v>9066</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>7835</v>
+        <v>9149</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>7919</v>
+        <v>9248</v>
       </c>
       <c r="G78" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>8011</v>
+        <v>9370</v>
       </c>
       <c r="I78" s="0">
         <v>15</v>
@@ -27013,37 +31180,37 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>3217247.9990869761</v>
+        <v>2395548.9959567785</v>
       </c>
       <c r="B79" s="0">
         <v>0</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>7692</v>
+        <v>8946</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>7783</v>
+        <v>9067</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>7835</v>
+        <v>9149</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>7920</v>
+        <v>9249</v>
       </c>
       <c r="G79" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>8012</v>
+        <v>9371</v>
       </c>
       <c r="I79" s="0">
-        <v>908</v>
+        <v>15</v>
       </c>
       <c r="J79" s="0">
         <v>1</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L79" s="0" t="s">
         <v>5938</v>
@@ -27051,28 +31218,28 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>4125451.9946873188</v>
+        <v>2410564.0020221472</v>
       </c>
       <c r="B80" s="0">
         <v>0</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>7693</v>
+        <v>8947</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>7784</v>
+        <v>9068</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>7836</v>
+        <v>9150</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>7921</v>
+        <v>9250</v>
       </c>
       <c r="G80" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>8013</v>
+        <v>9372</v>
       </c>
       <c r="I80" s="0">
         <v>15</v>
@@ -27085,37 +31252,37 @@
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>4140467.9965227842</v>
+        <v>2425583.9969962835</v>
       </c>
       <c r="B81" s="0">
         <v>0</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>7694</v>
+        <v>8948</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>7785</v>
+        <v>9069</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>7836</v>
+        <v>9150</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>7922</v>
+        <v>9251</v>
       </c>
       <c r="G81" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>8014</v>
+        <v>9373</v>
       </c>
       <c r="I81" s="0">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="J81" s="0">
         <v>1</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L81" s="0" t="s">
         <v>5938</v>
@@ -27123,28 +31290,28 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>4486067.9928213358</v>
+        <v>2440594.9998646975</v>
       </c>
       <c r="B82" s="0">
         <v>0</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>7695</v>
+        <v>8949</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>7786</v>
+        <v>9070</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>7837</v>
+        <v>9151</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>7923</v>
+        <v>9252</v>
       </c>
       <c r="G82" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>8015</v>
+        <v>9374</v>
       </c>
       <c r="I82" s="0">
         <v>15</v>
@@ -27157,28 +31324,28 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>4501080.9972882271</v>
+        <v>2455609.9958717823</v>
       </c>
       <c r="B83" s="0">
         <v>0</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>7696</v>
+        <v>8950</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>7787</v>
+        <v>9071</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>7837</v>
+        <v>9151</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>7924</v>
+        <v>9253</v>
       </c>
       <c r="G83" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>8016</v>
+        <v>9375</v>
       </c>
       <c r="I83" s="0">
         <v>15</v>
@@ -27187,7 +31354,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L83" s="0" t="s">
         <v>5938</v>
@@ -27195,28 +31362,28 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>4516093.9916968346</v>
+        <v>2470623.9961087704</v>
       </c>
       <c r="B84" s="0">
         <v>0</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>7697</v>
+        <v>8951</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>7788</v>
+        <v>9072</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>7838</v>
+        <v>9152</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>7925</v>
+        <v>9254</v>
       </c>
       <c r="G84" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>8017</v>
+        <v>9376</v>
       </c>
       <c r="I84" s="0">
         <v>15</v>
@@ -27229,28 +31396,28 @@
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>4531110.9993606806</v>
+        <v>2485639.9979442358</v>
       </c>
       <c r="B85" s="0">
         <v>0</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>7698</v>
+        <v>8952</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>7789</v>
+        <v>9073</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>7838</v>
+        <v>9152</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>7926</v>
+        <v>9255</v>
       </c>
       <c r="G85" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>8018</v>
+        <v>9377</v>
       </c>
       <c r="I85" s="0">
         <v>15</v>
@@ -27259,7 +31426,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L85" s="0" t="s">
         <v>5938</v>
@@ -27267,28 +31434,28 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>4546123.9937692881</v>
+        <v>2500653.9981812239</v>
       </c>
       <c r="B86" s="0">
         <v>0</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>7699</v>
+        <v>8953</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>7790</v>
+        <v>9074</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>7839</v>
+        <v>9153</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>7927</v>
+        <v>9256</v>
       </c>
       <c r="G86" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>8019</v>
+        <v>9378</v>
       </c>
       <c r="I86" s="0">
         <v>15</v>
@@ -27301,28 +31468,28 @@
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>4561140.9913748503</v>
+        <v>2515670.9957867861</v>
       </c>
       <c r="B87" s="0">
         <v>0</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>7700</v>
+        <v>8954</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>7791</v>
+        <v>9075</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>7839</v>
+        <v>9153</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>7928</v>
+        <v>9257</v>
       </c>
       <c r="G87" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>8020</v>
+        <v>9379</v>
       </c>
       <c r="I87" s="0">
         <v>15</v>
@@ -27331,7 +31498,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L87" s="0" t="s">
         <v>5938</v>
@@ -27339,28 +31506,28 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>4576154.9916118383</v>
+        <v>2530684.0002536774</v>
       </c>
       <c r="B88" s="0">
         <v>0</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>7701</v>
+        <v>8955</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>7792</v>
+        <v>9076</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>7840</v>
+        <v>9154</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>7929</v>
+        <v>9258</v>
       </c>
       <c r="G88" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>8021</v>
+        <v>9380</v>
       </c>
       <c r="I88" s="0">
         <v>15</v>
@@ -27373,28 +31540,28 @@
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>4591170.9934473038</v>
+        <v>2545702.9994577169</v>
       </c>
       <c r="B89" s="0">
         <v>0</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>7702</v>
+        <v>8956</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>7793</v>
+        <v>9077</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>7840</v>
+        <v>9154</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>7930</v>
+        <v>9259</v>
       </c>
       <c r="G89" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>8022</v>
+        <v>9381</v>
       </c>
       <c r="I89" s="0">
         <v>15</v>
@@ -27403,7 +31570,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>8028</v>
+        <v>9417</v>
       </c>
       <c r="L89" s="0" t="s">
         <v>5938</v>
@@ -27411,78 +31578,1096 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>4606184.9936842918</v>
+        <v>2560714.0023261309</v>
       </c>
       <c r="B90" s="0">
         <v>0</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>7703</v>
+        <v>8957</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>7794</v>
+        <v>9078</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>7841</v>
+        <v>9155</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>7931</v>
+        <v>9260</v>
       </c>
       <c r="G90" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>8023</v>
+        <v>9382</v>
       </c>
       <c r="I90" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J90" s="0">
-        <v>1</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>8029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K90" s="0"/>
       <c r="L90" s="0" t="s">
         <v>5939</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>4619400.9952247143</v>
+        <v>2575730.9999316931</v>
       </c>
       <c r="B91" s="0">
         <v>0</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>7704</v>
+        <v>8958</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>7795</v>
+        <v>9079</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>7841</v>
+        <v>9155</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>7932</v>
+        <v>9261</v>
       </c>
       <c r="G91" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>8024</v>
+        <v>9383</v>
       </c>
       <c r="I91" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J91" s="0">
         <v>1</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>8030</v>
+        <v>9417</v>
       </c>
       <c r="L91" s="0" t="s">
         <v>5940</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>2590745.0001686811</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>8959</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>9080</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>9156</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>9262</v>
+      </c>
+      <c r="G92" s="0">
+        <v>4</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>9384</v>
+      </c>
+      <c r="I92" s="0">
+        <v>15</v>
+      </c>
+      <c r="J92" s="0">
+        <v>0</v>
+      </c>
+      <c r="K92" s="0"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>2605761.0020041466</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>8960</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>9081</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>9156</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>9263</v>
+      </c>
+      <c r="G93" s="0">
+        <v>4</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>9385</v>
+      </c>
+      <c r="I93" s="0">
+        <v>15</v>
+      </c>
+      <c r="J93" s="0">
+        <v>1</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>2620775.0022411346</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>8961</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>9082</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>9157</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>9264</v>
+      </c>
+      <c r="G94" s="0">
+        <v>4</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>9386</v>
+      </c>
+      <c r="I94" s="0">
+        <v>15</v>
+      </c>
+      <c r="J94" s="0">
+        <v>0</v>
+      </c>
+      <c r="K94" s="0"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>2635790.9940183163</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>8962</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>9083</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>9157</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>9265</v>
+      </c>
+      <c r="G95" s="0">
+        <v>4</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>9387</v>
+      </c>
+      <c r="I95" s="0">
+        <v>15</v>
+      </c>
+      <c r="J95" s="0">
+        <v>1</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>2650804.9942553043</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>8963</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>9084</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>9158</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>9266</v>
+      </c>
+      <c r="G96" s="0">
+        <v>4</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>9388</v>
+      </c>
+      <c r="I96" s="0">
+        <v>15</v>
+      </c>
+      <c r="J96" s="0">
+        <v>0</v>
+      </c>
+      <c r="K96" s="0"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>2665823.9934593439</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>8964</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>9085</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>9158</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>9267</v>
+      </c>
+      <c r="G97" s="0">
+        <v>4</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>9389</v>
+      </c>
+      <c r="I97" s="0">
+        <v>15</v>
+      </c>
+      <c r="J97" s="0">
+        <v>1</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>2680834.9963277578</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>8965</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>9086</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>9159</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>9268</v>
+      </c>
+      <c r="G98" s="0">
+        <v>4</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>9390</v>
+      </c>
+      <c r="I98" s="0">
+        <v>15</v>
+      </c>
+      <c r="J98" s="0">
+        <v>0</v>
+      </c>
+      <c r="K98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>2695851.99393332</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>8966</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>9087</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>9159</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>9269</v>
+      </c>
+      <c r="G99" s="0">
+        <v>4</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>9391</v>
+      </c>
+      <c r="I99" s="0">
+        <v>15</v>
+      </c>
+      <c r="J99" s="0">
+        <v>1</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>2710864.9984002113</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>8967</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>9088</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>9160</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>9270</v>
+      </c>
+      <c r="G100" s="0">
+        <v>4</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>9392</v>
+      </c>
+      <c r="I100" s="0">
+        <v>15</v>
+      </c>
+      <c r="J100" s="0">
+        <v>0</v>
+      </c>
+      <c r="K100" s="0"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>2725881.9960057735</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>8968</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>9089</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>9160</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>9271</v>
+      </c>
+      <c r="G101" s="0">
+        <v>4</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>9393</v>
+      </c>
+      <c r="I101" s="0">
+        <v>15</v>
+      </c>
+      <c r="J101" s="0">
+        <v>1</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>2740895.9962427616</v>
+      </c>
+      <c r="B102" s="0">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>8969</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>9090</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>9161</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>9272</v>
+      </c>
+      <c r="G102" s="0">
+        <v>4</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>9394</v>
+      </c>
+      <c r="I102" s="0">
+        <v>15</v>
+      </c>
+      <c r="J102" s="0">
+        <v>0</v>
+      </c>
+      <c r="K102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>2755911.998078227</v>
+      </c>
+      <c r="B103" s="0">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>8970</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>9091</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>9161</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>9273</v>
+      </c>
+      <c r="G103" s="0">
+        <v>4</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>9395</v>
+      </c>
+      <c r="I103" s="0">
+        <v>15</v>
+      </c>
+      <c r="J103" s="0">
+        <v>1</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>2770925.9983152151</v>
+      </c>
+      <c r="B104" s="0">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>8971</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>9092</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>9162</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>9274</v>
+      </c>
+      <c r="G104" s="0">
+        <v>4</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>9396</v>
+      </c>
+      <c r="I104" s="0">
+        <v>15</v>
+      </c>
+      <c r="J104" s="0">
+        <v>0</v>
+      </c>
+      <c r="K104" s="0"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>2785944.9975192547</v>
+      </c>
+      <c r="B105" s="0">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>8972</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>9093</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>9162</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>9275</v>
+      </c>
+      <c r="G105" s="0">
+        <v>4</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>9397</v>
+      </c>
+      <c r="I105" s="0">
+        <v>15</v>
+      </c>
+      <c r="J105" s="0">
+        <v>1</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>2800956.0003876686</v>
+      </c>
+      <c r="B106" s="0">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>8973</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>9094</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>9163</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>9276</v>
+      </c>
+      <c r="G106" s="0">
+        <v>4</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>9398</v>
+      </c>
+      <c r="I106" s="0">
+        <v>15</v>
+      </c>
+      <c r="J106" s="0">
+        <v>0</v>
+      </c>
+      <c r="K106" s="0"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>2815972.9979932308</v>
+      </c>
+      <c r="B107" s="0">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>8974</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>9095</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>9163</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>9277</v>
+      </c>
+      <c r="G107" s="0">
+        <v>4</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>9399</v>
+      </c>
+      <c r="I107" s="0">
+        <v>15</v>
+      </c>
+      <c r="J107" s="0">
+        <v>1</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>2830986.9982302189</v>
+      </c>
+      <c r="B108" s="0">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>8975</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>9096</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>9164</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>9278</v>
+      </c>
+      <c r="G108" s="0">
+        <v>4</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>9400</v>
+      </c>
+      <c r="I108" s="0">
+        <v>15</v>
+      </c>
+      <c r="J108" s="0">
+        <v>0</v>
+      </c>
+      <c r="K108" s="0"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>2846003.0000656843</v>
+      </c>
+      <c r="B109" s="0">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>8976</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>9097</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>9164</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>9279</v>
+      </c>
+      <c r="G109" s="0">
+        <v>4</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>9401</v>
+      </c>
+      <c r="I109" s="0">
+        <v>15</v>
+      </c>
+      <c r="J109" s="0">
+        <v>1</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>2861017.0003026724</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>8977</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>9098</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>9165</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>9280</v>
+      </c>
+      <c r="G110" s="0">
+        <v>4</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>9402</v>
+      </c>
+      <c r="I110" s="0">
+        <v>15</v>
+      </c>
+      <c r="J110" s="0">
+        <v>0</v>
+      </c>
+      <c r="K110" s="0"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>2876033.0021381378</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>8978</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>9099</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>9165</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>9281</v>
+      </c>
+      <c r="G111" s="0">
+        <v>4</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>9403</v>
+      </c>
+      <c r="I111" s="0">
+        <v>15</v>
+      </c>
+      <c r="J111" s="0">
+        <v>1</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>2891047.0023751259</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>8979</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>9100</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>9166</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>9282</v>
+      </c>
+      <c r="G112" s="0">
+        <v>4</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>9404</v>
+      </c>
+      <c r="I112" s="0">
+        <v>15</v>
+      </c>
+      <c r="J112" s="0">
+        <v>0</v>
+      </c>
+      <c r="K112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>2906064.9957507849</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>8980</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>9101</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>9166</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>9283</v>
+      </c>
+      <c r="G113" s="0">
+        <v>4</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>9405</v>
+      </c>
+      <c r="I113" s="0">
+        <v>15</v>
+      </c>
+      <c r="J113" s="0">
+        <v>1</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>2921076.9943892956</v>
+      </c>
+      <c r="B114" s="0">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>8981</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>9102</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>9167</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>9284</v>
+      </c>
+      <c r="G114" s="0">
+        <v>4</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>9406</v>
+      </c>
+      <c r="I114" s="0">
+        <v>15</v>
+      </c>
+      <c r="J114" s="0">
+        <v>0</v>
+      </c>
+      <c r="K114" s="0"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>2936092.996224761</v>
+      </c>
+      <c r="B115" s="0">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>8982</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>9103</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>9167</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>9285</v>
+      </c>
+      <c r="G115" s="0">
+        <v>4</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>9407</v>
+      </c>
+      <c r="I115" s="0">
+        <v>15</v>
+      </c>
+      <c r="J115" s="0">
+        <v>1</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>2951106.9964617491</v>
+      </c>
+      <c r="B116" s="0">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>8983</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>9104</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>9168</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>9286</v>
+      </c>
+      <c r="G116" s="0">
+        <v>4</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>9408</v>
+      </c>
+      <c r="I116" s="0">
+        <v>15</v>
+      </c>
+      <c r="J116" s="0">
+        <v>0</v>
+      </c>
+      <c r="K116" s="0"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>2966123.9940673113</v>
+      </c>
+      <c r="B117" s="0">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>8984</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>9105</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>9168</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>9287</v>
+      </c>
+      <c r="G117" s="0">
+        <v>4</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>9409</v>
+      </c>
+      <c r="I117" s="0">
+        <v>15</v>
+      </c>
+      <c r="J117" s="0">
+        <v>1</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>2981136.9985342026</v>
+      </c>
+      <c r="B118" s="0">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>8985</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>9106</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>9169</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>9288</v>
+      </c>
+      <c r="G118" s="0">
+        <v>4</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>9410</v>
+      </c>
+      <c r="I118" s="0">
+        <v>15</v>
+      </c>
+      <c r="J118" s="0">
+        <v>0</v>
+      </c>
+      <c r="K118" s="0"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>2996153.9961397648</v>
+      </c>
+      <c r="B119" s="0">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>8986</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>9107</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>9169</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>9289</v>
+      </c>
+      <c r="G119" s="0">
+        <v>4</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>9411</v>
+      </c>
+      <c r="I119" s="0">
+        <v>15</v>
+      </c>
+      <c r="J119" s="0">
+        <v>1</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>3011167.0006066561</v>
+      </c>
+      <c r="B120" s="0">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>8987</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>9108</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>9170</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>9290</v>
+      </c>
+      <c r="G120" s="0">
+        <v>4</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>9412</v>
+      </c>
+      <c r="I120" s="0">
+        <v>15</v>
+      </c>
+      <c r="J120" s="0">
+        <v>0</v>
+      </c>
+      <c r="K120" s="0"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>3026186.9955807924</v>
+      </c>
+      <c r="B121" s="0">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>8988</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>9109</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>9170</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>9291</v>
+      </c>
+      <c r="G121" s="0">
+        <v>4</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>9413</v>
+      </c>
+      <c r="I121" s="0">
+        <v>0</v>
+      </c>
+      <c r="J121" s="0">
+        <v>1</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>9417</v>
       </c>
     </row>
   </sheetData>
